--- a/data/trans_dic/POLIPATOLOGIA_5-Edad-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA_5-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -729,7 +730,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,95</t>
+          <t>0,0; 1,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +740,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,19</t>
+          <t>0,0; 0,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,17 +750,17 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,14</t>
+          <t>0,0; 1,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,26</t>
+          <t>0,0; 1,21</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,52; 6,21</t>
+          <t>0,52; 5,65</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,17 +770,17 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,69</t>
+          <t>0,0; 0,77</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,7</t>
+          <t>0,0; 0,59</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,44</t>
+          <t>0,27; 2,54</t>
         </is>
       </c>
     </row>
@@ -864,7 +865,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,69</t>
+          <t>0,0; 0,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -879,47 +880,47 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,05</t>
+          <t>0,0; 1,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,89; 3,18</t>
+          <t>0,88; 3,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,52</t>
+          <t>0,44; 2,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,36</t>
+          <t>0,4; 2,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,23; 4,31</t>
+          <t>1,19; 4,33</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,46; 1,61</t>
+          <t>0,44; 1,59</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,26; 1,33</t>
+          <t>0,23; 1,32</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,12</t>
+          <t>0,17; 1,11</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,88; 2,61</t>
+          <t>0,86; 2,62</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,78</t>
+          <t>0,29; 1,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,37</t>
+          <t>0,13; 1,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,19</t>
+          <t>0,0; 1,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,93; 5,41</t>
+          <t>2,05; 5,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,13; 3,18</t>
+          <t>1,12; 3,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,9; 4,63</t>
+          <t>1,99; 4,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,52; 3,68</t>
+          <t>1,41; 3,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,84; 5,89</t>
+          <t>3,02; 6,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,84; 2,1</t>
+          <t>0,88; 2,11</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,17; 2,59</t>
+          <t>1,16; 2,73</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 2,12</t>
+          <t>0,84; 2,09</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,83; 5,03</t>
+          <t>2,87; 5,15</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 3,76</t>
+          <t>1,08; 3,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,07; 3,68</t>
+          <t>1,04; 3,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,45; 4,03</t>
+          <t>1,47; 4,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,79; 7,31</t>
+          <t>1,96; 7,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,23; 7,12</t>
+          <t>3,48; 7,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,77; 9,05</t>
+          <t>4,68; 8,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,94; 9,22</t>
+          <t>4,93; 9,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,74; 15,98</t>
+          <t>10,51; 15,73</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,61; 4,89</t>
+          <t>2,55; 5,05</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,18; 5,71</t>
+          <t>3,3; 5,72</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,72; 6,03</t>
+          <t>3,74; 6,07</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,31; 10,82</t>
+          <t>5,06; 10,71</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,05; 9,22</t>
+          <t>3,97; 8,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,48; 6,54</t>
+          <t>2,53; 6,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,23; 7,81</t>
+          <t>3,38; 7,92</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,73; 14,08</t>
+          <t>9,07; 13,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,38; 13,54</t>
+          <t>7,8; 13,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,43; 19,43</t>
+          <t>12,33; 19,44</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,56; 19,29</t>
+          <t>12,54; 19,73</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>16,74; 21,73</t>
+          <t>16,85; 21,82</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,46; 10,17</t>
+          <t>6,69; 10,36</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8,11; 12,21</t>
+          <t>8,0; 12,28</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8,59; 12,87</t>
+          <t>8,73; 12,96</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>13,41; 16,94</t>
+          <t>13,48; 16,89</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,9; 16,23</t>
+          <t>8,86; 16,45</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,02; 18,81</t>
+          <t>10,09; 18,74</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,92; 12,06</t>
+          <t>5,88; 11,87</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>12,29; 18,05</t>
+          <t>12,5; 18,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>13,27; 21,2</t>
+          <t>12,93; 21,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>15,77; 24,73</t>
+          <t>16,36; 24,64</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>19,07; 28,49</t>
+          <t>19,26; 28,19</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>28,08; 82,65</t>
+          <t>27,47; 79,99</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>12,21; 17,76</t>
+          <t>12,28; 17,71</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>14,49; 20,93</t>
+          <t>14,55; 20,59</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>13,75; 19,28</t>
+          <t>13,56; 19,11</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>21,49; 71,34</t>
+          <t>21,71; 66,91</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12,18; 22,09</t>
+          <t>12,09; 22,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>15,14; 25,86</t>
+          <t>15,51; 25,93</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>14,25; 23,03</t>
+          <t>14,2; 22,77</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>29,01; 37,97</t>
+          <t>29,55; 38,05</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>18,04; 27,86</t>
+          <t>18,06; 27,83</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>30,7; 40,57</t>
+          <t>30,67; 40,41</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>22,86; 33,1</t>
+          <t>23,31; 33,47</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>44,31; 50,97</t>
+          <t>44,18; 51,16</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>17,13; 24,27</t>
+          <t>16,94; 24,16</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>25,79; 33,21</t>
+          <t>26,13; 33,56</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>21,14; 28,31</t>
+          <t>21,1; 28,09</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>39,16; 44,73</t>
+          <t>39,56; 44,91</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,82; 4,04</t>
+          <t>2,83; 4,12</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,13; 4,53</t>
+          <t>3,14; 4,49</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,88; 4,18</t>
+          <t>2,88; 4,2</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6,29; 9,07</t>
+          <t>6,22; 8,95</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,89; 7,69</t>
+          <t>5,87; 7,71</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>8,94; 11,06</t>
+          <t>8,81; 10,91</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>8,71; 10,9</t>
+          <t>8,75; 10,9</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>15,68; 34,42</t>
+          <t>15,76; 35,55</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4,56; 5,65</t>
+          <t>4,61; 5,69</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>6,29; 7,56</t>
+          <t>6,25; 7,5</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>6,13; 7,34</t>
+          <t>6,06; 7,33</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>11,65; 22,19</t>
+          <t>11,61; 23,57</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con cinco o más enfermedades crónicas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>960</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>980</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>959</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>6370</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1940</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>959</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>6535</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1897</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4969</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2044</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1025</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1832</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5192</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4806</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1629; 17697</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1867</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6770</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4815</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>1905; 18144</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1003</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1032</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>2397</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>11123</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>7207</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>6019</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>12805</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>12126</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>8239</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>6019</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>15203</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5025</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4934</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1996</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 8145</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>5531; 20957</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>2689; 15343</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2270; 12340</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>6097; 22155</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>6054; 21658</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>2964; 17137</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1934; 12807</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>8022; 24473</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>5059</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2851</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2462</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>17658</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>13789</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>22267</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>15682</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>25872</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>18849</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>25117</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>18144</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>43530</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1879; 10993</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>889; 8022</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 9025</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>11012; 27968</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>7728; 21701</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>14171; 32764</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>9348; 24200</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>17870; 35900</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>11673; 28071</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>16165; 38008</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>11112; 27867</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>32371; 58117</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>10974</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>12746</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>16318</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>42267</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>26427</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>40837</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>45118</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>93638</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>37401</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>53582</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>61436</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>135905</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>5611; 20155</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>6421; 24205</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>9483; 27138</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>17361; 65388</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>17960; 38395</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>28807; 54142</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>32021; 59111</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>74944; 112106</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>26370; 52229</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>40672; 70346</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>48454; 78678</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>80934; 171393</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>23723</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>17874</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>24843</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>62667</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>41503</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>70156</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>78431</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>105258</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>65226</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>88029</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>103274</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>167925</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>15344; 34247</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>10881; 27436</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>16152; 37870</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>50891; 77413</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>31517; 54510</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>55204; 87038</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>62321; 98032</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>92338; 119540</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>52912; 81953</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>70209; 107705</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>85077; 126362</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>149498; 187295</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>327</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>35708</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>43922</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>28267</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>55894</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>57926</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>71318</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>87954</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>320723</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>93635</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>115240</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>116221</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>376617</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>25918; 48123</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>31270; 58042</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>19675; 39671</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>46026; 66736</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>44330; 72786</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>57916; 87228</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>72754; 106490</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>167097; 486607</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>78010; 112524</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>96610; 136648</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>96549; 136057</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>212009; 653409</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>436</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>598</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>35370</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>50469</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>47594</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>94189</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>75780</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>138241</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>113028</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>203641</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>111150</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>188710</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>160623</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>297830</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>25367; 47533</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>38745; 64789</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>36488; 58529</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>83557; 107576</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>60313; 92929</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>119306; 157204</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>93284; 133955</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>188116; 217834</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>92111; 131405</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>166937; 214373</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>138678; 184592</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>280292; 318241</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>1064</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>441</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>424</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>1456</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>111838</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>129852</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>119484</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>275237</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>226549</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>351006</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>347191</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>768308</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>338386</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>480858</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>466675</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>1043545</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>92695; 134837</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>107465; 153734</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>97702; 142580</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>215175; 309745</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>198422; 260679</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>313531; 388151</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>310099; 386289</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>585192; 1319657</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>306644; 378429</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>436314; 523549</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>420266; 508712</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>832624; 1690428</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>